--- a/biology/Histoire de la zoologie et de la botanique/Bernard_Lagrange/Bernard_Lagrange.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bernard_Lagrange/Bernard_Lagrange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Lagrange, né le 20 avril 1955, est un chercheur écologiste français indépendant. Il naît à Saint-Germain-en-Laye de Georges Lagrange, un espérantiste. Appelé sous les drapeaux en 1975 il s'insoumet, et, étant clandestin, il travaille pour l'APRE (Agence de Presse pour la Réhabilitation Écologique) et la revue « Pollution Non » tous deux dirigés par Jean-Luc Burgunder à Montargis. C'est dans ce contexte que Bernard Lagrange va mener une grande enquête d'investigation sur la production de biométhane, c'est-à-dire de méthane produit par la fermentation anaéorobie de matières organiques (fumiers, lisiers, etc. ). Cette enquête aboutira à la publication d'un ouvrage publié en 1979 aux éditions Edisud sous le titre « Biométhane » qui reste une référence dans ce domaine. Après avoir participé dans les années 1980 et 90 à divers projets alternatifs écologiques dans le Lot et dans les Landes, il s'est actuellement engagé dans un projet autour des énergies alternatives en Loire-Atlantique.
 </t>
